--- a/错误代码.xlsx
+++ b/错误代码.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colin/Documents/企财通/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA996EEF-A0C2-6E49-93FC-D293CF1513F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F444BBD3-EB63-2A4A-B2FB-803223E7E8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="60880" windowHeight="28340" xr2:uid="{B3CFC376-7A99-234F-B4F9-FCE622FB8685}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="498">
   <si>
     <t>ER_000001</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -526,10 +526,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>检查电控锁配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ER_000049</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1906,6 +1902,116 @@
   </si>
   <si>
     <t>取出排纸单元或扫描仪出纸口（外部）的纸张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已过期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>检查电控门配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查电控门状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{source}}发生卡纸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER_000204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{source}}检测到纸张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取出卡纸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{source}}没有纸张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查传感器非误报并处理纸张问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER_000205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER_000206</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法自动的校准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需运维介入手动校准机械臂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER_000207</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动轴数量过多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z轴无法与其他轴同时运动，请检查调度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供了重复的运动轴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER_000208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER_000209</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅支持手动电控门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER_000210</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅支持物理仓位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER_000211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{source}}已离线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER_000212</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效的输入输出端口类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2027,7 +2133,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2358,18 +2474,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EAB345-0B77-8148-920B-E7A45BD8B20C}">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="45.83203125" customWidth="1"/>
-    <col min="5" max="5" width="80.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="45.83203125" customWidth="1"/>
+    <col min="6" max="6" width="80.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2380,15 +2499,18 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1">
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2399,15 +2521,18 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2418,15 +2543,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -2437,15 +2565,18 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="H4" s="6"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2456,15 +2587,18 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2475,13 +2609,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
+    <row r="7" spans="1:9" ht="30" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2492,13 +2629,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2509,13 +2649,16 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2526,13 +2669,16 @@
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1">
+    <row r="10" spans="1:9" ht="30" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2543,13 +2689,16 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1">
+    <row r="11" spans="1:9" ht="30" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -2560,13 +2709,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1">
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2577,13 +2729,16 @@
         <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1">
+    <row r="13" spans="1:9" ht="30" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,13 +2749,16 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1">
+    <row r="14" spans="1:9" ht="30" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -2611,13 +2769,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1">
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -2628,13 +2789,16 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1">
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -2645,13 +2809,16 @@
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
+    <row r="17" spans="1:6" ht="30" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -2662,13 +2829,16 @@
         <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
+    <row r="18" spans="1:6" ht="30" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -2679,13 +2849,16 @@
         <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
+    <row r="19" spans="1:6" ht="30" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -2696,13 +2869,16 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
+    <row r="20" spans="1:6" ht="30" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -2713,13 +2889,16 @@
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
+    <row r="21" spans="1:6" ht="30" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -2730,13 +2909,16 @@
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
+    <row r="22" spans="1:6" ht="30" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -2747,13 +2929,16 @@
         <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
+    <row r="23" spans="1:6" ht="30" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -2764,13 +2949,16 @@
         <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>226</v>
+        <v>471</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="F23" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2781,13 +2969,16 @@
         <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>374</v>
+        <v>471</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
+        <v>373</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -2798,13 +2989,16 @@
         <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
+    <row r="26" spans="1:6" ht="30" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -2815,13 +3009,16 @@
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>224</v>
+        <v>471</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
+    <row r="27" spans="1:6" ht="30" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -2832,13 +3029,16 @@
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>217</v>
+        <v>471</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
+    <row r="28" spans="1:6" ht="30" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -2849,13 +3049,16 @@
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
+    <row r="29" spans="1:6" ht="30" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -2866,13 +3069,16 @@
         <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
+    <row r="30" spans="1:6" ht="30" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,13 +3089,16 @@
         <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1">
+    <row r="31" spans="1:6" ht="30" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -2900,13 +3109,16 @@
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
+    <row r="32" spans="1:6" ht="30" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
@@ -2917,13 +3129,16 @@
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>330</v>
+        <v>471</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1">
+    <row r="33" spans="1:6" ht="30" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
@@ -2934,13 +3149,16 @@
         <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1">
+    <row r="34" spans="1:6" ht="30" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
@@ -2951,13 +3169,16 @@
         <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1">
+    <row r="35" spans="1:6" ht="30" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>90</v>
       </c>
@@ -2968,13 +3189,16 @@
         <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1">
+    <row r="36" spans="1:6" ht="30" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
@@ -2985,13 +3209,16 @@
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1">
+    <row r="37" spans="1:6" ht="30" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
@@ -3002,13 +3229,16 @@
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1">
+    <row r="38" spans="1:6" ht="30" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
@@ -3019,13 +3249,16 @@
         <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1">
+    <row r="39" spans="1:6" ht="30" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>99</v>
       </c>
@@ -3036,13 +3269,16 @@
         <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1">
+    <row r="40" spans="1:6" ht="30" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
@@ -3053,13 +3289,16 @@
         <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>333</v>
+        <v>471</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1">
+    <row r="41" spans="1:6" ht="30" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>103</v>
       </c>
@@ -3070,13 +3309,16 @@
         <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1">
+    <row r="42" spans="1:6" ht="30" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>104</v>
       </c>
@@ -3087,13 +3329,16 @@
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1">
+    <row r="43" spans="1:6" ht="30" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>108</v>
       </c>
@@ -3104,13 +3349,16 @@
         <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1">
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>109</v>
       </c>
@@ -3121,13 +3369,16 @@
         <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1">
+    <row r="45" spans="1:6" ht="30" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>112</v>
       </c>
@@ -3138,13 +3389,16 @@
         <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1">
+    <row r="46" spans="1:6" ht="30" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>114</v>
       </c>
@@ -3155,13 +3409,16 @@
         <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1">
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
@@ -3172,13 +3429,16 @@
         <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1">
+    <row r="48" spans="1:6" ht="30" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
@@ -3189,13 +3449,16 @@
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1">
+    <row r="49" spans="1:6" ht="30" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
@@ -3206,84 +3469,99 @@
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1">
+    <row r="50" spans="1:6" ht="30" customHeight="1">
       <c r="A50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" customHeight="1">
+      <c r="A51" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1">
-      <c r="A51" s="1" t="s">
+      <c r="F51" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1">
-      <c r="A53" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:6" ht="30" customHeight="1">
+      <c r="A54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1">
-      <c r="A54" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
@@ -3291,270 +3569,318 @@
         <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>134</v>
+        <v>471</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1">
+      <c r="F54" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" customHeight="1">
+      <c r="A56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="F56" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" customHeight="1">
+      <c r="A57" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1">
-      <c r="A58" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" customHeight="1">
+      <c r="A59" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F60" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1">
-      <c r="A60" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="F61" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="30" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1">
-      <c r="A61" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="F66" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1">
-      <c r="A62" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1">
-      <c r="A63" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1">
-      <c r="A64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1">
-      <c r="A65" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1">
-      <c r="A66" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1">
-      <c r="A67" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" customHeight="1">
-      <c r="A68" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="1" t="s">
+    <row r="69" spans="1:6" ht="30" customHeight="1">
+      <c r="A69" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30" customHeight="1">
+      <c r="A70" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1">
-      <c r="A70" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>13</v>
@@ -3563,15 +3889,18 @@
         <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>379</v>
+        <v>471</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1">
+    <row r="71" spans="1:6" ht="30" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>13</v>
@@ -3580,15 +3909,18 @@
         <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1">
+    </row>
+    <row r="72" spans="1:6" ht="30" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>13</v>
@@ -3597,15 +3929,18 @@
         <v>10</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>167</v>
+        <v>471</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1">
-      <c r="A73" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>13</v>
@@ -3614,236 +3949,278 @@
         <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30" customHeight="1">
+      <c r="A74" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" customHeight="1">
+      <c r="A75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1">
-      <c r="A74" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1">
-      <c r="A75" s="1" t="s">
+      <c r="F75" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="30" customHeight="1">
-      <c r="A76" s="1" t="s">
+      <c r="F76" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="B77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1">
-      <c r="A77" s="1" t="s">
+      <c r="F77" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" customHeight="1">
+      <c r="A78" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="B78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1">
-      <c r="A78" s="1" t="s">
+      <c r="F78" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1">
-      <c r="A79" s="1" t="s">
+    </row>
+    <row r="80" spans="1:6" ht="30" customHeight="1">
+      <c r="A80" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="30" customHeight="1">
-      <c r="A80" s="1" t="s">
+      <c r="F80" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30" customHeight="1">
+      <c r="A81" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1">
-      <c r="A82" s="1" t="s">
+      <c r="F82" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" customHeight="1">
+      <c r="A83" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" customHeight="1">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30" customHeight="1">
+      <c r="A84" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" customHeight="1">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E84" s="1" t="s">
+    </row>
+    <row r="85" spans="1:6" ht="30" customHeight="1">
+      <c r="A85" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="30" customHeight="1">
-      <c r="A85" s="1" t="s">
+      <c r="F85" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30" customHeight="1">
+      <c r="A86" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30" customHeight="1">
+      <c r="A87" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="30" customHeight="1">
-      <c r="A87" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>13</v>
@@ -3852,253 +4229,298 @@
         <v>10</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30" customHeight="1">
+      <c r="A88" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="30" customHeight="1">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="30" customHeight="1">
+      <c r="A89" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="30" customHeight="1">
-      <c r="A89" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="F89" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30" customHeight="1">
+      <c r="A90" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="30" customHeight="1">
-      <c r="A90" s="1" t="s">
+      <c r="F90" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="30" customHeight="1">
+      <c r="A91" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="30" customHeight="1">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="F91" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30" customHeight="1">
+      <c r="A92" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="30" customHeight="1">
-      <c r="A92" s="1" t="s">
+      <c r="F92" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30" customHeight="1">
+      <c r="A93" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="B93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="30" customHeight="1">
-      <c r="A93" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="1" t="s">
+    </row>
+    <row r="94" spans="1:6" ht="30" customHeight="1">
+      <c r="A94" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="30" customHeight="1">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E94" s="1" t="s">
+    </row>
+    <row r="95" spans="1:6" ht="30" customHeight="1">
+      <c r="A95" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="30" customHeight="1">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:6" ht="30" customHeight="1">
+      <c r="A96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="F96" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="30" customHeight="1">
+      <c r="A97" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" customHeight="1">
+      <c r="A98" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="30" customHeight="1">
-      <c r="A96" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="30" customHeight="1">
-      <c r="A97" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="30" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="30" customHeight="1">
+      <c r="F98" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="30" customHeight="1">
       <c r="A99" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="30" customHeight="1">
+      <c r="A100" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="30" customHeight="1">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="F100" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" customHeight="1">
+      <c r="A101" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="30" customHeight="1">
-      <c r="A101" s="1" t="s">
+      <c r="B101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" customHeight="1">
+      <c r="F101" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="30" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>12</v>
@@ -4107,134 +4529,158 @@
         <v>10</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>228</v>
+        <v>471</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="30" customHeight="1">
+      <c r="F102" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" customHeight="1">
       <c r="A103" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="F103" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" customHeight="1">
+      <c r="A104" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="F104" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30" customHeight="1">
+      <c r="A105" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="30" customHeight="1">
-      <c r="A105" s="1" t="s">
+      <c r="F105" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" customHeight="1">
+      <c r="A106" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E105" s="1" t="s">
+      <c r="B106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30" customHeight="1">
+      <c r="A107" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="30" customHeight="1">
+      <c r="A108" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30" customHeight="1">
+      <c r="A109" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="30" customHeight="1">
-      <c r="A106" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="30" customHeight="1">
-      <c r="A107" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="30" customHeight="1">
-      <c r="A108" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30" customHeight="1">
-      <c r="A109" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="30" customHeight="1">
+    <row r="110" spans="1:6" ht="30" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>4</v>
@@ -4243,270 +4689,318 @@
         <v>10</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>247</v>
+        <v>471</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="30" customHeight="1">
+      <c r="F110" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="30" customHeight="1">
       <c r="A111" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="30" customHeight="1">
+      <c r="A112" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="30" customHeight="1">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="F112" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="30" customHeight="1">
+      <c r="A113" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" customHeight="1">
-      <c r="A113" s="1" t="s">
+      <c r="B113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E113" s="1" t="s">
+    </row>
+    <row r="114" spans="1:6" ht="30" customHeight="1">
+      <c r="A114" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="30" customHeight="1">
-      <c r="A114" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="F114" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="30" customHeight="1">
+      <c r="A115" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="30" customHeight="1">
-      <c r="A115" s="1" t="s">
+      <c r="B115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="F115" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30" customHeight="1">
+      <c r="A116" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" customHeight="1">
-      <c r="A116" s="1" t="s">
+      <c r="F116" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" customHeight="1">
+      <c r="A117" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" customHeight="1">
-      <c r="A117" s="1" t="s">
+      <c r="B117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="F117" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" customHeight="1">
+      <c r="A118" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="30" customHeight="1">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="F118" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="30" customHeight="1">
+      <c r="A119" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="30" customHeight="1">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="F119" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="30" customHeight="1">
+      <c r="A120" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="30" customHeight="1">
-      <c r="A120" s="1" t="s">
+      <c r="F120" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="30" customHeight="1">
+      <c r="A121" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="30" customHeight="1">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="F121" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="30" customHeight="1">
+      <c r="A122" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="30" customHeight="1">
-      <c r="A122" s="1" t="s">
+      <c r="B122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="30" customHeight="1">
+      <c r="F122" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="30" customHeight="1">
       <c r="A123" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="30" customHeight="1">
+      <c r="F123" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="30" customHeight="1">
       <c r="A124" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="F124" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="30" customHeight="1">
+      <c r="A125" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="30" customHeight="1">
-      <c r="A125" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="F125" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="30" customHeight="1">
+      <c r="A126" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="30" customHeight="1">
-      <c r="A126" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>13</v>
@@ -4515,287 +5009,338 @@
         <v>10</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" customHeight="1">
+      <c r="F126" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="30" customHeight="1">
       <c r="A127" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="30" customHeight="1">
+      <c r="F127" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="30" customHeight="1">
       <c r="A128" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30" customHeight="1">
+      <c r="A129" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="30" customHeight="1">
+      <c r="A130" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="30" customHeight="1">
+      <c r="A131" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="30" customHeight="1">
+      <c r="A132" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="30" customHeight="1">
+      <c r="A133" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="30" customHeight="1">
+      <c r="A134" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="30" customHeight="1">
+      <c r="A135" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="30" customHeight="1">
+      <c r="A136" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="30" customHeight="1">
+      <c r="A137" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="30" customHeight="1">
+      <c r="A138" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="30" customHeight="1">
+      <c r="A139" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="30" customHeight="1">
+      <c r="A140" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="30" customHeight="1">
+      <c r="A141" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="30" customHeight="1">
+      <c r="A142" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F142" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="30" customHeight="1">
-      <c r="A129" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="30" customHeight="1">
-      <c r="A130" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="30" customHeight="1">
-      <c r="A131" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="30" customHeight="1">
-      <c r="A132" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="30" customHeight="1">
-      <c r="A133" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="30" customHeight="1">
-      <c r="A134" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="30" customHeight="1">
-      <c r="A135" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="30" customHeight="1">
-      <c r="A136" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="30" customHeight="1">
-      <c r="A137" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="30" customHeight="1">
-      <c r="A138" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="30" customHeight="1">
-      <c r="A139" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="30" customHeight="1">
-      <c r="A140" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="30" customHeight="1">
-      <c r="A141" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="30" customHeight="1">
-      <c r="A142" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="30" customHeight="1">
+    </row>
+    <row r="143" spans="1:6" ht="30" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>12</v>
@@ -4804,457 +5349,538 @@
         <v>10</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="30" customHeight="1">
+      <c r="A144" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="30" customHeight="1">
+      <c r="A145" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="30" customHeight="1">
+      <c r="A146" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="30" customHeight="1">
+      <c r="A147" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="30" customHeight="1">
+      <c r="A148" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="30" customHeight="1">
+      <c r="A149" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="30" customHeight="1">
+      <c r="A150" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="30" customHeight="1">
+      <c r="A151" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="30" customHeight="1">
+      <c r="A152" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="30" customHeight="1">
+      <c r="A153" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="30" customHeight="1">
+      <c r="A154" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="30" customHeight="1">
+      <c r="A155" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F155" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="E143" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="30" customHeight="1">
-      <c r="A144" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="30" customHeight="1">
-      <c r="A145" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="30" customHeight="1">
-      <c r="A146" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="30" customHeight="1">
-      <c r="A147" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="30" customHeight="1">
-      <c r="A148" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="30" customHeight="1">
-      <c r="A149" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="30" customHeight="1">
-      <c r="A150" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="30" customHeight="1">
-      <c r="A151" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="30" customHeight="1">
-      <c r="A152" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="30" customHeight="1">
-      <c r="A153" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="30" customHeight="1">
-      <c r="A154" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="30" customHeight="1">
-      <c r="A155" s="1" t="s">
+    </row>
+    <row r="156" spans="1:6" ht="30" customHeight="1">
+      <c r="A156" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="30" customHeight="1">
-      <c r="A156" s="1" t="s">
+      <c r="B156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="F156" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="30" customHeight="1">
+      <c r="A157" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E156" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="30" customHeight="1">
-      <c r="A157" s="1" t="s">
+      <c r="B157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="F157" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="30" customHeight="1">
+      <c r="A158" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E157" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="30" customHeight="1">
-      <c r="A158" s="1" t="s">
+      <c r="B158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="F158" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="30" customHeight="1">
+      <c r="A159" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E158" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="30" customHeight="1">
-      <c r="A159" s="1" t="s">
+      <c r="B159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="30" customHeight="1">
+      <c r="A160" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="B160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E159" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="30" customHeight="1">
-      <c r="A160" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="30" customHeight="1">
+      <c r="F160" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="30" customHeight="1">
       <c r="A161" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="F161" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="30" customHeight="1">
+      <c r="A162" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E161" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="30" customHeight="1">
-      <c r="A162" s="1" t="s">
+      <c r="B162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="30" customHeight="1">
+      <c r="F162" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="30" customHeight="1">
       <c r="A163" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D163" s="1" t="s">
+      <c r="F163" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="30" customHeight="1">
+      <c r="A164" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E163" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="30" customHeight="1">
-      <c r="A164" s="1" t="s">
+      <c r="F164" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="30" customHeight="1">
+      <c r="A165" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="30" customHeight="1">
-      <c r="A165" s="1" t="s">
+      <c r="B165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="F165" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="30" customHeight="1">
+      <c r="A166" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E165" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="30" customHeight="1">
-      <c r="A166" s="1" t="s">
+      <c r="B166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="F166" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="30" customHeight="1">
+      <c r="A167" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E166" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="30" customHeight="1">
-      <c r="A167" s="1" t="s">
+      <c r="B167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="F167" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="30" customHeight="1">
+      <c r="A168" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E167" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="30" customHeight="1">
-      <c r="A168" s="1" t="s">
+      <c r="B168" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="F168" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="30" customHeight="1">
+      <c r="A169" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E168" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="30" customHeight="1">
-      <c r="A169" s="1" t="s">
+      <c r="F169" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="30" customHeight="1">
+      <c r="A170" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="30" customHeight="1">
-      <c r="A170" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>13</v>
@@ -5263,32 +5889,38 @@
         <v>10</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="30" customHeight="1">
+        <v>471</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="30" customHeight="1">
       <c r="A171" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="F171" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="30" customHeight="1">
+      <c r="A172" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="30" customHeight="1">
-      <c r="A172" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>13</v>
@@ -5297,572 +5929,860 @@
         <v>10</v>
       </c>
       <c r="D172" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="30" customHeight="1">
+      <c r="A173" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E172" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="30" customHeight="1">
-      <c r="A173" s="1" t="s">
+      <c r="B173" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="F173" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="30" customHeight="1">
+      <c r="A174" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E173" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="30" customHeight="1">
-      <c r="A174" s="1" t="s">
+      <c r="F174" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="30" customHeight="1">
+      <c r="A175" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="30" customHeight="1">
-      <c r="A175" s="1" t="s">
+      <c r="F175" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="30" customHeight="1">
+      <c r="A176" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="30" customHeight="1">
-      <c r="A176" s="1" t="s">
+      <c r="F176" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="30" customHeight="1">
+      <c r="A177" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="30" customHeight="1">
-      <c r="A177" s="1" t="s">
+      <c r="B177" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D177" s="1" t="s">
+      <c r="F177" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="30" customHeight="1">
+      <c r="A178" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E177" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="30" customHeight="1">
-      <c r="A178" s="1" t="s">
+      <c r="B178" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="30" customHeight="1">
+      <c r="A179" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D178" s="1" t="s">
+      <c r="B179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E178" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="30" customHeight="1">
-      <c r="A179" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D179" s="1" t="s">
+      <c r="F179" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="30" customHeight="1">
+      <c r="A180" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E179" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="30" customHeight="1">
-      <c r="A180" s="1" t="s">
+      <c r="B180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D180" s="1" t="s">
+      <c r="F180" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="30" customHeight="1">
+      <c r="A181" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E180" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="30" customHeight="1">
-      <c r="A181" s="1" t="s">
+      <c r="B181" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D181" s="1" t="s">
+      <c r="F181" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="30" customHeight="1">
+      <c r="A182" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E181" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="30" customHeight="1">
-      <c r="A182" s="1" t="s">
+      <c r="F182" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="30" customHeight="1">
+      <c r="A183" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="30" customHeight="1">
-      <c r="A183" s="1" t="s">
+      <c r="B183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="30" customHeight="1">
+      <c r="A184" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D183" s="1" t="s">
+      <c r="B184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="30" customHeight="1">
+      <c r="A185" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="30" customHeight="1">
+      <c r="A186" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="30" customHeight="1">
+      <c r="A187" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="E183" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="30" customHeight="1">
-      <c r="A184" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="30" customHeight="1">
-      <c r="A185" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="30" customHeight="1">
-      <c r="A186" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D186" s="1" t="s">
+      <c r="F187" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="30" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="30" customHeight="1">
+      <c r="A189" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="30" customHeight="1">
+      <c r="A190" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E186" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="30" customHeight="1">
-      <c r="A187" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="30" customHeight="1">
-      <c r="A188" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D188" s="1" t="s">
+      <c r="B190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="30" customHeight="1">
+      <c r="A191" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E188" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="30" customHeight="1">
-      <c r="A189" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E189" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="30" customHeight="1">
-      <c r="A190" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="30" customHeight="1">
-      <c r="A191" s="1" t="s">
+      <c r="F191" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="30" customHeight="1">
+      <c r="A192" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D191" s="1" t="s">
+      <c r="B192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="30" customHeight="1">
+      <c r="A193" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="30" customHeight="1">
+      <c r="A194" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E191" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="30" customHeight="1">
-      <c r="A192" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="30" customHeight="1">
-      <c r="A193" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="30" customHeight="1">
-      <c r="A194" s="1" t="s">
+      <c r="F194" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="30" customHeight="1">
+      <c r="A195" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E194" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="30" customHeight="1">
-      <c r="A195" s="1" t="s">
+      <c r="B195" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="30" customHeight="1">
+      <c r="A196" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D195" s="1" t="s">
+      <c r="B196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="30" customHeight="1">
+      <c r="A197" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E195" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="30" customHeight="1">
-      <c r="A196" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="30" customHeight="1">
-      <c r="A197" s="1" t="s">
+      <c r="B197" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D197" s="1" t="s">
+      <c r="F197" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="30" customHeight="1">
+      <c r="A198" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E197" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="30" customHeight="1">
-      <c r="A198" s="1" t="s">
+      <c r="F198" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="30" customHeight="1">
+      <c r="A199" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E198" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="30" customHeight="1">
-      <c r="A199" s="1" t="s">
+      <c r="B199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D199" s="1" t="s">
+      <c r="F199" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="30" customHeight="1">
+      <c r="A200" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E199" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="30" customHeight="1">
-      <c r="A200" s="1" t="s">
+      <c r="B200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E200" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="30" customHeight="1">
+      <c r="F200" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="30" customHeight="1">
       <c r="A201" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="30" customHeight="1">
+      <c r="A202" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="30" customHeight="1">
-      <c r="A202" s="1" t="s">
+      <c r="F202" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="30" customHeight="1">
+      <c r="A203" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E202" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="30" customHeight="1">
-      <c r="A203" s="1" t="s">
+      <c r="B203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D203" s="1" t="s">
+      <c r="F203" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="30" customHeight="1">
+      <c r="A204" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E203" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="30" customHeight="1">
-      <c r="A204" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="B204" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E204" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F204" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="30" customHeight="1">
+      <c r="A205" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="30" customHeight="1">
+      <c r="A206" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F206" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="30" customHeight="1">
+      <c r="A207" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="30" customHeight="1">
+      <c r="A208" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F208" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="30" customHeight="1">
+      <c r="A209" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="30" customHeight="1">
+      <c r="A210" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F210" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="30" customHeight="1">
+      <c r="A211" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="30" customHeight="1">
+      <c r="A212" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="30" customHeight="1">
+      <c r="A213" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F213" s="7" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B204">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:B213">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"中等"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"严重"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B204" xr:uid="{BCAEDB77-901E-9446-B486-D4CAA5467026}">
+  <conditionalFormatting sqref="D2:D213">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"是"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B213" xr:uid="{BCAEDB77-901E-9446-B486-D4CAA5467026}">
       <formula1>"轻微,中等,严重"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C204" xr:uid="{216A866F-F3DA-CE45-8E59-0579B7109587}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C213" xr:uid="{216A866F-F3DA-CE45-8E59-0579B7109587}">
       <formula1>"服务,硬件"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{BAD034E4-C27C-B142-A1FB-FAFE98D54898}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{326E51AB-65FF-D041-B928-45E2B20885BC}">
+      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
